--- a/data/trans_bre/P14_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>105,31%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,18</t>
+          <t>-1,35; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 5,22</t>
+          <t>-5,01; 5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,5; 201,75</t>
+          <t>-64,04; 203,6</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>37,21%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,99</t>
+          <t>-1,69; 5,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,82</t>
+          <t>-3,3; 8,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,91; 593,88</t>
+          <t>-57,55; 789,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 138,34</t>
+          <t>-34,12; 183,07</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,31%</t>
+          <t>-22,88%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 8,86</t>
+          <t>-1,97; 4,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,18</t>
+          <t>-7,59; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 622,92</t>
+          <t>-55,15; 341,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 28,34</t>
+          <t>-51,7; 23,62</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,38%</t>
+          <t>-31,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,26</t>
+          <t>-5,33; 1,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,39</t>
+          <t>-3,72; 4,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,38; 39,17</t>
+          <t>-69,89; 40,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 87,67</t>
+          <t>-38,8; 92,57</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-12,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,0%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,83</t>
+          <t>-4,62; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,13</t>
+          <t>-4,55; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-71,18; 111,03</t>
+          <t>-68,86; 119,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 109,24</t>
+          <t>-38,96; 74,05</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,13%</t>
+          <t>-11,27%</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,13</t>
+          <t>-2,36; 2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 3,3</t>
+          <t>-5,78; 3,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,81; 137,75</t>
+          <t>-75,66; 139,64</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,0</t>
+          <t>-1,06; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,55</t>
+          <t>-2,04; 1,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 90,04</t>
+          <t>-28,32; 63,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 22,82</t>
+          <t>-22,51; 28,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>94,67%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7191758045511043</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4483922560674557</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1.278786990298491</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.09910904269251004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 3,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 5,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-64,04; 203,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.092783799823157</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.188373585115655</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.6094742047918565</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.68917210370022</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.238756062802612</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>2.328146598572401</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>89,84%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 5,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 8,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-57,55; 789,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,12; 183,07</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.912710552905045</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.172441345195748</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.8932535650182364</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.291609337154136</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>41,14%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-22,88%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.7056704262341</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.722625544920229</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5892132421483766</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.390591069303462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 4,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,59; 1,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-55,15; 341,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-51,7; 23,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.366509224308009</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.57645045169568</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.466947790203368</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.669330782026892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +712,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-31,13%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.166985858666798</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.600013466990784</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.880578279861632</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.2385289903341609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 1,3</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 4,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-69,89; 40,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-38,8; 92,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9083304536416963</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.697764279354959</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.4041399915626372</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5405410448204905</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.990885908822003</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.774884793041108</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>5.207547398354055</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2125123901276882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,08%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 3,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 5,51</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-68,86; 119,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-38,96; 74,05</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.73607230897853</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6737257216450299</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.3210628481124528</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.09846541375021935</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,06%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-11,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.490266123338854</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.559078189065039</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.7037004922609398</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3882371233103084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 2,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 3,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-75,66; 139,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.288143945933733</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.634021611760387</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3968599404223476</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.9708371284774093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +840,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,18%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.5209649447443634</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.9084646879231745</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1119415022842691</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.09911598826494238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,48</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 1,78</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-28,32; 63,8</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-22,51; 28,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.475949815319409</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.183278125786295</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.6875618600533492</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.3647210382186852</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.282440146425685</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.219950487269196</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.314548490584154</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.8398492099601709</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.3155568757350192</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.7265169673401045</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.2840551559083861</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1474079265301887</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-2.111488503332921</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-6.311418521584071</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.7687383003673751</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2.252032481496575</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.094516621905954</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>1.306530909510179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.430206178087112</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.09709168078186892</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.1546051774205263</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.01305536990310057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.8195860080098465</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.124121123118849</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2391019158574142</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2447733047611171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.721016997047988</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.782423048494564</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.792502895291072</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2768222033497896</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1026,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
